--- a/Data/Processed/Angiosperms/missing_powo_ipni/Vitaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Vitaceae.xlsx
@@ -2137,7 +2137,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -3698,7 +3698,7 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Anais Reunião Sul-Amer. Bot. 3: 84, tab. 12. 1940 </t>
+          <t>Anais Reunião Sul-Amer. Bot. 3: 84, tab. 12. 1940</t>
         </is>
       </c>
       <c r="J59" t="b">
@@ -3766,7 +3766,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
